--- a/TrainSchdule/wwwroot/Templete/探亲休假登记卡.xlsx
+++ b/TrainSchdule/wwwroot/Templete/探亲休假登记卡.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时\干部休假系统\Excel模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serfendXMP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B6841-4981-4B84-BF12-590A50A0BD8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96922EF-6527-4CAD-A158-961CBB98D7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -171,6 +171,134 @@
         <family val="1"/>
       </rPr>
       <t>[Social.Phone]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Social.Phone]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;[List]$[RequestInfo.VocationLength]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[RequestInfo.OnTripLength]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[RequestInfo.VocationType]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[RequestInfo.StampLeave]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[RequestInfo.StampReturn]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[Response.SelfRankAudit]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[Response.LastRankAudit]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[AuditLeader]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[List]</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -298,41 +426,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +803,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,22 +821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
@@ -720,73 +848,93 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TrainSchdule/wwwroot/Templete/探亲休假登记卡.xlsx
+++ b/TrainSchdule/wwwroot/Templete/探亲休假登记卡.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serfendXMP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aserfend\workSpace\repos\projects\com.sf.trainTaskSchedule.mvc\Project.Web.SfMVC.TrainSchdule.1903\TrainSchdule\wwwroot\Templete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96922EF-6527-4CAD-A158-961CBB98D7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6111F0C0-2C90-4A73-A3D4-BE808DA8800A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -122,29 +122,11 @@
     </r>
   </si>
   <si>
-    <t>所在单位
-意  见</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治部门
-意  见</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>路途
 天数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>单位:$[Company.Name]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名:$[Base.RealName]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>$</t>
     </r>
@@ -155,151 +137,61 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>[Duties.Name]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Social.Phone]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[Social.Phone]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;[List]$[RequestInfo.VocationLength]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[RequestInfo.OnTripLength]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[RequestInfo.VocationType]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[RequestInfo.StampLeave]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[RequestInfo.StampReturn]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Response.SelfRankAudit]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Response.LastRankAudit]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>[AuditLeader]</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[List]</t>
-    </r>
+    <t>&gt;[Roster]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名:$[Base_RealName]</t>
+  </si>
+  <si>
+    <t>$[Social_Phone]</t>
+  </si>
+  <si>
+    <t>&lt;[Roster]$[RequestInfo_VocationLength]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_OnTripLength]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationType]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampLeave]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampReturn]</t>
+  </si>
+  <si>
+    <t>$[Social_AddressDetail]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Response_LastRankAudit]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Response_SelfRankAudit]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治部门意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在单位意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位:$[Company_Name]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Duties_Name]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -307,6 +199,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -419,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -432,12 +327,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -447,6 +336,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -459,7 +366,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,17 +713,16 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.83203125" style="10" customWidth="1"/>
     <col min="7" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -821,29 +730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -851,98 +760,99 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
